--- a/TOP100.xlsx
+++ b/TOP100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C5DBFF-5D96-4E06-A4A2-69277FDB8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9EDEB-7946-4088-90E1-3CD9B871CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
   <si>
     <t>240.搜索二维矩阵Ⅱ</t>
   </si>
@@ -323,6 +323,15 @@
   </si>
   <si>
     <t>-1</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.15</t>
   </si>
 </sst>
 </file>
@@ -663,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +918,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,7 +926,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,15 +934,18 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>3.9</v>
+      <c r="B30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30">
+        <v>3.12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,7 +953,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,24 +963,30 @@
       <c r="B32" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -976,316 +994,364 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>96</v>
       </c>
     </row>

--- a/TOP100.xlsx
+++ b/TOP100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9EDEB-7946-4088-90E1-3CD9B871CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6346133-2B2A-486B-88BD-27B7DCFCE779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
   <si>
     <t>240.搜索二维矩阵Ⅱ</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>3.15</t>
+  </si>
+  <si>
+    <t>3.16</t>
   </si>
 </sst>
 </file>
@@ -672,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,13 +1023,16 @@
       <c r="B38" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="C38">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,7 +1040,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1048,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,7 +1056,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,6 +1119,9 @@
       <c r="A51" t="s">
         <v>49</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1134,224 +1143,248 @@
       <c r="A55" t="s">
         <v>52</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
+      <c r="B62" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>96</v>
       </c>
     </row>
